--- a/2조_개발스케쥴표_v0.1.xlsx
+++ b/2조_개발스케쥴표_v0.1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>구    분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. UI 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. Backend 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +137,18 @@
   </si>
   <si>
     <t>아동 예방 접종률 분석 및                      병원 위치 안내 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 예측 서비스 UI 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1. 메인 페이지 UI 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2. 예측 서비스 UI 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -840,19 +854,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,9 +978,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,19 +986,94 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,28 +1083,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1040,122 +1095,65 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,7 +1193,7 @@
         <xdr:cNvPr id="4221" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7D832D-4F08-808B-4FF2-30285E291F0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F7D832D-4F08-808B-4FF2-30285E291F0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1247,7 @@
         <xdr:cNvPr id="4222" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6E8C07-EDEB-0419-7E67-A6FEE0F46300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F6E8C07-EDEB-0419-7E67-A6FEE0F46300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1301,7 @@
         <xdr:cNvPr id="4223" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0428A27-93EC-38B9-C02B-919B7BA52C1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0428A27-93EC-38B9-C02B-919B7BA52C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1355,7 @@
         <xdr:cNvPr id="4224" name="Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66788-F631-1504-1DF2-AD2189D7B6D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84E66788-F631-1504-1DF2-AD2189D7B6D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1419,7 @@
         <xdr:cNvPr id="4225" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC7C1CD-DB45-22A8-B92B-947BB46F3624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AC7C1CD-DB45-22A8-B92B-947BB46F3624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1764,395 +1762,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="42"/>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="42"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="42"/>
-      <c r="BP1" s="42"/>
-      <c r="BQ1" s="42"/>
-      <c r="BR1" s="42"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
     </row>
     <row r="2" spans="2:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="BR2" s="2"/>
     </row>
     <row r="3" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="47" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="48"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="72"/>
     </row>
     <row r="4" spans="2:70" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="46" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="55" t="s">
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="46" t="s">
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="55" t="s">
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="55" t="s">
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50" t="s">
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="55" t="s">
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="48"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="72"/>
     </row>
     <row r="5" spans="2:70" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61">
+      <c r="B5" s="80"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="44">
         <v>11</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="45">
         <v>12</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="45">
         <v>13</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="45">
         <v>14</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="45">
         <v>15</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="46">
         <v>16</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="45">
         <v>17</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="45">
         <v>18</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="45">
         <v>19</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="45">
         <v>20</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="45">
         <v>21</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="45">
         <v>22</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="45">
         <v>23</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="45">
         <v>24</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="45">
         <v>25</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="45">
         <v>26</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="45">
         <v>27</v>
       </c>
-      <c r="V5" s="62">
+      <c r="V5" s="45">
         <v>28</v>
       </c>
-      <c r="W5" s="62">
+      <c r="W5" s="45">
         <v>29</v>
       </c>
-      <c r="X5" s="62">
+      <c r="X5" s="45">
         <v>30</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="45">
         <v>31</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="44">
         <v>1</v>
       </c>
-      <c r="AA5" s="62">
+      <c r="AA5" s="45">
         <v>2</v>
       </c>
-      <c r="AB5" s="62">
+      <c r="AB5" s="45">
         <v>3</v>
       </c>
-      <c r="AC5" s="62">
+      <c r="AC5" s="45">
         <v>4</v>
       </c>
-      <c r="AD5" s="64">
+      <c r="AD5" s="47">
         <v>5</v>
       </c>
-      <c r="AE5" s="64">
+      <c r="AE5" s="47">
         <v>6</v>
       </c>
-      <c r="AF5" s="64">
+      <c r="AF5" s="47">
         <v>7</v>
       </c>
-      <c r="AG5" s="64">
+      <c r="AG5" s="47">
         <v>8</v>
       </c>
-      <c r="AH5" s="64">
+      <c r="AH5" s="47">
         <v>9</v>
       </c>
-      <c r="AI5" s="64">
+      <c r="AI5" s="47">
         <v>10</v>
       </c>
-      <c r="AJ5" s="64">
+      <c r="AJ5" s="47">
         <v>11</v>
       </c>
-      <c r="AK5" s="64">
+      <c r="AK5" s="47">
         <v>12</v>
       </c>
-      <c r="AL5" s="64">
+      <c r="AL5" s="47">
         <v>13</v>
       </c>
-      <c r="AM5" s="64">
+      <c r="AM5" s="47">
         <v>14</v>
       </c>
-      <c r="AN5" s="64">
+      <c r="AN5" s="47">
         <v>15</v>
       </c>
-      <c r="AO5" s="64">
+      <c r="AO5" s="47">
         <v>16</v>
       </c>
-      <c r="AP5" s="65">
+      <c r="AP5" s="48">
         <v>17</v>
       </c>
-      <c r="AQ5" s="62">
+      <c r="AQ5" s="45">
         <v>18</v>
       </c>
-      <c r="AR5" s="54">
+      <c r="AR5" s="43">
         <v>19</v>
       </c>
-      <c r="AS5" s="54">
+      <c r="AS5" s="43">
         <v>20</v>
       </c>
-      <c r="AT5" s="54">
+      <c r="AT5" s="43">
         <v>21</v>
       </c>
-      <c r="AU5" s="54">
+      <c r="AU5" s="43">
         <v>22</v>
       </c>
-      <c r="AV5" s="54">
+      <c r="AV5" s="43">
         <v>23</v>
       </c>
-      <c r="AW5" s="54">
+      <c r="AW5" s="43">
         <v>24</v>
       </c>
-      <c r="AX5" s="54">
+      <c r="AX5" s="43">
         <v>25</v>
       </c>
-      <c r="AY5" s="54">
+      <c r="AY5" s="43">
         <v>26</v>
       </c>
-      <c r="AZ5" s="54">
+      <c r="AZ5" s="43">
         <v>27</v>
       </c>
-      <c r="BA5" s="54">
+      <c r="BA5" s="43">
         <v>28</v>
       </c>
-      <c r="BB5" s="54">
+      <c r="BB5" s="43">
         <v>29</v>
       </c>
-      <c r="BC5" s="54">
+      <c r="BC5" s="43">
         <v>30</v>
       </c>
-      <c r="BD5" s="66">
+      <c r="BD5" s="49">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2200,13 +2198,13 @@
       <c r="BD6" s="7"/>
     </row>
     <row r="7" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4"/>
@@ -2263,9 +2261,9 @@
       <c r="BD7" s="7"/>
     </row>
     <row r="8" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="51" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="21"/>
@@ -2273,8 +2271,8 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="28"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -2322,20 +2320,20 @@
       <c r="BD8" s="25"/>
     </row>
     <row r="9" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -2381,9 +2379,9 @@
       <c r="BD9" s="25"/>
     </row>
     <row r="10" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="71" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="52" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="9"/>
@@ -2414,10 +2412,10 @@
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="29"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
@@ -2440,10 +2438,10 @@
       <c r="BD10" s="12"/>
     </row>
     <row r="11" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="71" t="s">
-        <v>23</v>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="52" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
@@ -2454,15 +2452,15 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -2473,10 +2471,10 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="10"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="29"/>
       <c r="AK11" s="29"/>
       <c r="AL11" s="29"/>
       <c r="AM11" s="29"/>
@@ -2499,10 +2497,10 @@
       <c r="BD11" s="12"/>
     </row>
     <row r="12" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="71" t="s">
-        <v>24</v>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="52" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
@@ -2543,25 +2541,25 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="29"/>
       <c r="AQ12" s="29"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
       <c r="BD12" s="12"/>
     </row>
     <row r="13" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73" t="s">
-        <v>25</v>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -2612,18 +2610,18 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
       <c r="BA13" s="16"/>
-      <c r="BB13" s="39"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="40"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="39"/>
     </row>
     <row r="14" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="75" t="s">
+      <c r="C14" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="4"/>
@@ -2680,9 +2678,9 @@
       <c r="BD14" s="7"/>
     </row>
     <row r="15" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="64" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="21"/>
@@ -2692,7 +2690,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="31"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="22"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -2739,9 +2737,9 @@
       <c r="BD15" s="25"/>
     </row>
     <row r="16" spans="2:70" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="21"/>
@@ -2798,9 +2796,9 @@
       <c r="BD16" s="25"/>
     </row>
     <row r="17" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="78" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="65" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="9"/>
@@ -2810,7 +2808,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="29"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -2857,10 +2855,10 @@
       <c r="BD17" s="12"/>
     </row>
     <row r="18" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="78" t="s">
-        <v>23</v>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -2878,14 +2876,14 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
       <c r="AC18" s="29"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
@@ -2916,10 +2914,10 @@
       <c r="BD18" s="12"/>
     </row>
     <row r="19" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="78" t="s">
-        <v>24</v>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="65" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -2975,10 +2973,10 @@
       <c r="BD19" s="12"/>
     </row>
     <row r="20" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80" t="s">
-        <v>25</v>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="66" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
@@ -3029,28 +3027,28 @@
       <c r="AY20" s="16"/>
       <c r="AZ20" s="16"/>
       <c r="BA20" s="16"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="40"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="39"/>
     </row>
     <row r="21" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="82" t="s">
+      <c r="C21" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="32"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3099,18 +3097,18 @@
       <c r="BI21" s="19"/>
     </row>
     <row r="22" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -3158,9 +3156,9 @@
       <c r="BD22" s="25"/>
     </row>
     <row r="23" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="21"/>
@@ -3217,9 +3215,9 @@
       <c r="BD23" s="25"/>
     </row>
     <row r="24" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="85" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="9"/>
@@ -3228,7 +3226,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24"/>
-      <c r="K24" s="28"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
@@ -3245,9 +3243,9 @@
       <c r="Y24" s="34"/>
       <c r="Z24" s="35"/>
       <c r="AA24" s="36"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
@@ -3276,10 +3274,10 @@
       <c r="BD24" s="12"/>
     </row>
     <row r="25" spans="1:61" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="85" t="s">
-        <v>23</v>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
@@ -3300,9 +3298,9 @@
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
       <c r="AB25" s="35"/>
       <c r="AC25" s="36"/>
@@ -3310,9 +3308,9 @@
       <c r="AE25" s="28"/>
       <c r="AF25" s="28"/>
       <c r="AG25" s="28"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
       <c r="AM25" s="10"/>
@@ -3335,10 +3333,10 @@
       <c r="BD25" s="12"/>
     </row>
     <row r="26" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="85" t="s">
-        <v>24</v>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
@@ -3369,7 +3367,7 @@
       <c r="AE26" s="22"/>
       <c r="AF26" s="22"/>
       <c r="AG26" s="22"/>
-      <c r="AH26" s="28"/>
+      <c r="AH26" s="22"/>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="28"/>
       <c r="AK26" s="28"/>
@@ -3394,10 +3392,10 @@
       <c r="BD26" s="12"/>
     </row>
     <row r="27" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87" t="s">
-        <v>25</v>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
@@ -3444,30 +3442,31 @@
       <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
       <c r="AW27" s="16"/>
-      <c r="AX27" s="38"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
       <c r="AZ27" s="16"/>
       <c r="BA27" s="16"/>
       <c r="BB27" s="28"/>
       <c r="BC27" s="28"/>
-      <c r="BD27" s="28"/>
+      <c r="BD27" s="39"/>
     </row>
     <row r="28" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="89" t="s">
+      <c r="C28" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3515,16 +3514,16 @@
       <c r="BD28" s="7"/>
     </row>
     <row r="29" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="59" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
@@ -3574,9 +3573,9 @@
       <c r="BD29" s="25"/>
     </row>
     <row r="30" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="59" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="21"/>
@@ -3587,7 +3586,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="22"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -3633,9 +3632,9 @@
       <c r="BD30" s="25"/>
     </row>
     <row r="31" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="92" t="s">
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="60" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="9"/>
@@ -3672,8 +3671,8 @@
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
       <c r="AO31" s="10"/>
       <c r="AP31" s="10"/>
       <c r="AQ31" s="10"/>
@@ -3692,10 +3691,10 @@
       <c r="BD31" s="12"/>
     </row>
     <row r="32" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="92" t="s">
-        <v>23</v>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="60" t="s">
+        <v>30</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
@@ -3706,37 +3705,37 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="10"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="29"/>
-      <c r="AR32" s="29"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
       <c r="AT32" s="11"/>
       <c r="AU32" s="11"/>
@@ -3751,10 +3750,10 @@
       <c r="BD32" s="12"/>
     </row>
     <row r="33" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="92" t="s">
-        <v>24</v>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
@@ -3767,8 +3766,8 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
@@ -3776,99 +3775,157 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="28"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
+      <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="29"/>
-      <c r="AS33" s="29"/>
-      <c r="AT33" s="29"/>
-      <c r="AU33" s="29"/>
-      <c r="AV33" s="29"/>
-      <c r="AW33" s="29"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
       <c r="BB33" s="11"/>
       <c r="BC33" s="11"/>
       <c r="BD33" s="12"/>
     </row>
-    <row r="34" spans="2:56" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-      <c r="AR34" s="16"/>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16"/>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16"/>
-      <c r="AW34" s="16"/>
-      <c r="AX34" s="16"/>
-      <c r="AY34" s="16"/>
-      <c r="AZ34" s="16"/>
-      <c r="BA34" s="39"/>
-      <c r="BB34" s="39"/>
-      <c r="BC34" s="39"/>
-      <c r="BD34" s="40"/>
+    <row r="34" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="29"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="12"/>
     </row>
-    <row r="35" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:56" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="39"/>
+    </row>
     <row r="36" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3880,6 +3937,14 @@
     <row r="44" spans="2:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C7:C13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B1:BR1"/>
     <mergeCell ref="E3:Y3"/>
@@ -3891,14 +3956,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="AY4:BD4"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B7:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31" right="0.16" top="0.2" bottom="0.16" header="0.17" footer="0.16"/>
